--- a/stock_predictor_ai/data/cleaned/HCA.xlsx
+++ b/stock_predictor_ai/data/cleaned/HCA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3599"/>
+  <dimension ref="A1:F3600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72429,6 +72429,26 @@
         <v>163524</v>
       </c>
     </row>
+    <row r="3600">
+      <c r="A3600" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3600" t="n">
+        <v>376.6000061035156</v>
+      </c>
+      <c r="C3600" t="n">
+        <v>379</v>
+      </c>
+      <c r="D3600" t="n">
+        <v>375.8200073242188</v>
+      </c>
+      <c r="E3600" t="n">
+        <v>379</v>
+      </c>
+      <c r="F3600" t="n">
+        <v>97607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HCA.xlsx
+++ b/stock_predictor_ai/data/cleaned/HCA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3600"/>
+  <dimension ref="A1:F3601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72449,6 +72449,26 @@
         <v>97607</v>
       </c>
     </row>
+    <row r="3601">
+      <c r="A3601" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3601" t="n">
+        <v>371.7999877929688</v>
+      </c>
+      <c r="C3601" t="n">
+        <v>383</v>
+      </c>
+      <c r="D3601" t="n">
+        <v>368.6499938964844</v>
+      </c>
+      <c r="E3601" t="n">
+        <v>379.5400085449219</v>
+      </c>
+      <c r="F3601" t="n">
+        <v>1304400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HCA.xlsx
+++ b/stock_predictor_ai/data/cleaned/HCA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3601"/>
+  <dimension ref="A1:F3602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72469,6 +72469,26 @@
         <v>1304400</v>
       </c>
     </row>
+    <row r="3602">
+      <c r="A3602" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3602" t="n">
+        <v>363.1000061035156</v>
+      </c>
+      <c r="C3602" t="n">
+        <v>364.1400146484375</v>
+      </c>
+      <c r="D3602" t="n">
+        <v>359.3399963378906</v>
+      </c>
+      <c r="E3602" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="F3602" t="n">
+        <v>100723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HCA.xlsx
+++ b/stock_predictor_ai/data/cleaned/HCA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3602"/>
+  <dimension ref="A1:F3603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72489,6 +72489,26 @@
         <v>100723</v>
       </c>
     </row>
+    <row r="3603">
+      <c r="A3603" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3603" t="n">
+        <v>406.1300048828125</v>
+      </c>
+      <c r="C3603" t="n">
+        <v>408.4800109863281</v>
+      </c>
+      <c r="D3603" t="n">
+        <v>400.1300048828125</v>
+      </c>
+      <c r="E3603" t="n">
+        <v>401.6600036621094</v>
+      </c>
+      <c r="F3603" t="n">
+        <v>406986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HCA.xlsx
+++ b/stock_predictor_ai/data/cleaned/HCA.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3603"/>
+  <dimension ref="A1:F3598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72409,106 +72411,6 @@
         <v>1554800</v>
       </c>
     </row>
-    <row r="3599">
-      <c r="A3599" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3599" t="n">
-        <v>375.2699890136719</v>
-      </c>
-      <c r="C3599" t="n">
-        <v>381.1799926757812</v>
-      </c>
-      <c r="D3599" t="n">
-        <v>371.2200012207031</v>
-      </c>
-      <c r="E3599" t="n">
-        <v>379.1600036621094</v>
-      </c>
-      <c r="F3599" t="n">
-        <v>163524</v>
-      </c>
-    </row>
-    <row r="3600">
-      <c r="A3600" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3600" t="n">
-        <v>376.6000061035156</v>
-      </c>
-      <c r="C3600" t="n">
-        <v>379</v>
-      </c>
-      <c r="D3600" t="n">
-        <v>375.8200073242188</v>
-      </c>
-      <c r="E3600" t="n">
-        <v>379</v>
-      </c>
-      <c r="F3600" t="n">
-        <v>97607</v>
-      </c>
-    </row>
-    <row r="3601">
-      <c r="A3601" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3601" t="n">
-        <v>371.7999877929688</v>
-      </c>
-      <c r="C3601" t="n">
-        <v>383</v>
-      </c>
-      <c r="D3601" t="n">
-        <v>368.6499938964844</v>
-      </c>
-      <c r="E3601" t="n">
-        <v>379.5400085449219</v>
-      </c>
-      <c r="F3601" t="n">
-        <v>1304400</v>
-      </c>
-    </row>
-    <row r="3602">
-      <c r="A3602" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3602" t="n">
-        <v>363.1000061035156</v>
-      </c>
-      <c r="C3602" t="n">
-        <v>364.1400146484375</v>
-      </c>
-      <c r="D3602" t="n">
-        <v>359.3399963378906</v>
-      </c>
-      <c r="E3602" t="n">
-        <v>361.5</v>
-      </c>
-      <c r="F3602" t="n">
-        <v>100723</v>
-      </c>
-    </row>
-    <row r="3603">
-      <c r="A3603" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3603" t="n">
-        <v>406.1300048828125</v>
-      </c>
-      <c r="C3603" t="n">
-        <v>408.4800109863281</v>
-      </c>
-      <c r="D3603" t="n">
-        <v>400.1300048828125</v>
-      </c>
-      <c r="E3603" t="n">
-        <v>401.6600036621094</v>
-      </c>
-      <c r="F3603" t="n">
-        <v>406986</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
